--- a/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_cm152a_212.qasm_rb2_archsize4_mini_dis.xlsx
+++ b/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_cm152a_212.qasm_rb2_archsize4_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N555"/>
+  <dimension ref="A1:N556"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4912252426147461</v>
+        <v>0.9866282939910889</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001070022583007812</v>
+        <v>0.002173185348510742</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.09250402450561523</v>
+        <v>0.195281982421875</v>
       </c>
     </row>
     <row r="8">
@@ -4309,7 +4309,7 @@
         </is>
       </c>
       <c r="B549" t="n">
-        <v>0.06908606388465655</v>
+        <v>0.06907545308017451</v>
       </c>
     </row>
     <row r="550">
@@ -4319,116 +4319,126 @@
         </is>
       </c>
       <c r="B550" t="n">
-        <v>8594.998228329947</v>
+        <v>8825.398228329947</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>7</v>
+        <v>0.9995748127383826</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>436</v>
+        <v>7</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>2</v>
+        <v>532</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B554" t="n">
-        <v>0.6040899753570557</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B555" t="n">
+        <v>1.222177982330322</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B555" t="inlineStr">
+      <c r="B556" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C555" t="inlineStr">
+      <c r="C556" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D555" t="inlineStr">
+      <c r="D556" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E555" t="inlineStr">
+      <c r="E556" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F555" t="inlineStr">
+      <c r="F556" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G555" t="inlineStr">
+      <c r="G556" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
+      <c r="H556" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I555" t="inlineStr">
+      <c r="I556" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J555" t="inlineStr">
+      <c r="J556" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K555" t="inlineStr">
+      <c r="K556" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L555" t="inlineStr">
+      <c r="L556" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M555" t="inlineStr">
+      <c r="M556" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N555" t="inlineStr">
+      <c r="N556" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>

--- a/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_cm152a_212.qasm_rb2_archsize4_mini_dis.xlsx
+++ b/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_cm152a_212.qasm_rb2_archsize4_mini_dis.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9866282939910889</v>
+        <v>0.0008230209350585938</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.002173185348510742</v>
+        <v>0.0004618167877197266</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.195281982421875</v>
+        <v>0.09512495994567871</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(2, 3), (3, 3), (0, 3), (1, 1), (0, 1), (2, 1), (1, 0), (0, 0), (2, 2), (0, 2), (1, 2), (1, 3)]</t>
+          <t>[[2, 3], [3, 3], [0, 3], [1, 1], [0, 1], [2, 1], [1, 0], [0, 0], [2, 2], [0, 2], [1, 2], [1, 3]]</t>
         </is>
       </c>
     </row>
@@ -3626,7 +3626,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>[(0, 3), (0, 2), (1, 1), (1, 0), (1, 3), (2, 0), (3, 0), (0, 0), (2, 2), (2, 1), (0, 1), (1, 2)]</t>
+          <t>[[0, 3], [0, 2], [1, 1], [1, 0], [1, 3], [2, 0], [3, 0], [0, 0], [2, 2], [2, 1], [0, 1], [1, 2]]</t>
         </is>
       </c>
     </row>
@@ -4369,7 +4369,7 @@
         </is>
       </c>
       <c r="B555" t="n">
-        <v>1.222177982330322</v>
+        <v>0.121013879776001</v>
       </c>
     </row>
     <row r="556">
